--- a/Deliverable/results/vapor_pressure.xlsx
+++ b/Deliverable/results/vapor_pressure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -1629,11 +1629,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51707310"/>
-        <c:axId val="64352128"/>
+        <c:axId val="22860453"/>
+        <c:axId val="74835971"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51707310"/>
+        <c:axId val="22860453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +1675,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64352128"/>
+        <c:crossAx val="74835971"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64352128"/>
+        <c:axId val="74835971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51707310"/>
+        <c:crossAx val="22860453"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2595,11 +2595,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59383083"/>
-        <c:axId val="50671462"/>
+        <c:axId val="56157492"/>
+        <c:axId val="96309809"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59383083"/>
+        <c:axId val="56157492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,12 +2641,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50671462"/>
+        <c:crossAx val="96309809"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50671462"/>
+        <c:axId val="96309809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2688,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59383083"/>
+        <c:crossAx val="56157492"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3561,11 +3561,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94162053"/>
-        <c:axId val="62439973"/>
+        <c:axId val="61497983"/>
+        <c:axId val="90407847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94162053"/>
+        <c:axId val="61497983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3607,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62439973"/>
+        <c:crossAx val="90407847"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62439973"/>
+        <c:axId val="90407847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94162053"/>
+        <c:crossAx val="61497983"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4527,11 +4527,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68043300"/>
-        <c:axId val="25810963"/>
+        <c:axId val="84608355"/>
+        <c:axId val="77866030"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68043300"/>
+        <c:axId val="84608355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,12 +4573,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25810963"/>
+        <c:crossAx val="77866030"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25810963"/>
+        <c:axId val="77866030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68043300"/>
+        <c:crossAx val="84608355"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5493,11 +5493,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23736880"/>
-        <c:axId val="10371596"/>
+        <c:axId val="47515628"/>
+        <c:axId val="68330096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23736880"/>
+        <c:axId val="47515628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,12 +5539,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10371596"/>
+        <c:crossAx val="68330096"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10371596"/>
+        <c:axId val="68330096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23736880"/>
+        <c:crossAx val="47515628"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5625,9 +5625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1153080</xdr:colOff>
+      <xdr:colOff>1152720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5636,7 +5636,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1053720" y="1648800"/>
-        <a:ext cx="4851720" cy="4475160"/>
+        <a:ext cx="4851360" cy="4474800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5655,9 +5655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495360</xdr:colOff>
+      <xdr:colOff>495000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>194400</xdr:rowOff>
+      <xdr:rowOff>194040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5666,7 +5666,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5884560" y="1595880"/>
-        <a:ext cx="4850640" cy="4503960"/>
+        <a:ext cx="4850280" cy="4503600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5685,9 +5685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5696,7 +5696,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10732320" y="1620000"/>
-        <a:ext cx="5034240" cy="4438080"/>
+        <a:ext cx="5033880" cy="4437720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5715,9 +5715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>888480</xdr:colOff>
+      <xdr:colOff>888120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5726,7 +5726,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3364200" y="6166440"/>
-        <a:ext cx="4652640" cy="4087800"/>
+        <a:ext cx="4652280" cy="4087440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5745,9 +5745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:colOff>753480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5756,7 +5756,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8162640" y="6247800"/>
-        <a:ext cx="4666320" cy="4002120"/>
+        <a:ext cx="4665960" cy="4001760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -55867,7 +55867,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -56009,8 +56009,8 @@
   </sheetPr>
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -61886,46 +61886,16 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <f aca="false">T1!E141</f>
-        <v>0</v>
-      </c>
-      <c r="B141" s="1" t="n">
-        <f aca="false">T1!F141</f>
-        <v>0</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <f aca="false">T2!E141</f>
-        <v>0</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <f aca="false">T2!F141</f>
-        <v>0</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <f aca="false">T3!E141</f>
-        <v>0</v>
-      </c>
-      <c r="F141" s="1" t="n">
-        <f aca="false">T3!F141</f>
-        <v>0</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <f aca="false">T4!E141</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="1" t="n">
-        <f aca="false">T4!F141</f>
-        <v>0</v>
-      </c>
-      <c r="I141" s="1" t="n">
-        <f aca="false">T5!E141</f>
-        <v>0</v>
-      </c>
-      <c r="J141" s="1" t="n">
-        <f aca="false">T5!F141</f>
-        <v>0</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Deliverable/results/vapor_pressure.xlsx
+++ b/Deliverable/results/vapor_pressure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="174">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -519,6 +519,9 @@
     <t xml:space="preserve">MAE</t>
   </si>
   <si>
+    <t xml:space="preserve">MAE / Scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1_true</t>
   </si>
   <si>
@@ -658,7 +661,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +675,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1629,11 +1636,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22860453"/>
-        <c:axId val="74835971"/>
+        <c:axId val="82400393"/>
+        <c:axId val="28126625"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22860453"/>
+        <c:axId val="82400393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +1682,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74835971"/>
+        <c:crossAx val="28126625"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74835971"/>
+        <c:axId val="28126625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1729,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22860453"/>
+        <c:crossAx val="82400393"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2595,11 +2602,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56157492"/>
-        <c:axId val="96309809"/>
+        <c:axId val="70944668"/>
+        <c:axId val="66032221"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56157492"/>
+        <c:axId val="70944668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,12 +2648,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96309809"/>
+        <c:crossAx val="66032221"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96309809"/>
+        <c:axId val="66032221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56157492"/>
+        <c:crossAx val="70944668"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3561,11 +3568,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61497983"/>
-        <c:axId val="90407847"/>
+        <c:axId val="35126698"/>
+        <c:axId val="8440753"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61497983"/>
+        <c:axId val="35126698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3614,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90407847"/>
+        <c:crossAx val="8440753"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90407847"/>
+        <c:axId val="8440753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3661,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61497983"/>
+        <c:crossAx val="35126698"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4527,11 +4534,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84608355"/>
-        <c:axId val="77866030"/>
+        <c:axId val="31741004"/>
+        <c:axId val="10921842"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84608355"/>
+        <c:axId val="31741004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,12 +4580,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77866030"/>
+        <c:crossAx val="10921842"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77866030"/>
+        <c:axId val="10921842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84608355"/>
+        <c:crossAx val="31741004"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5493,11 +5500,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47515628"/>
-        <c:axId val="68330096"/>
+        <c:axId val="71364467"/>
+        <c:axId val="59656217"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47515628"/>
+        <c:axId val="71364467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,12 +5546,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68330096"/>
+        <c:crossAx val="59656217"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68330096"/>
+        <c:axId val="59656217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47515628"/>
+        <c:crossAx val="71364467"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5619,15 +5626,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1053720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1152720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>98280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5635,8 +5642,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1053720" y="1648800"/>
-        <a:ext cx="4851360" cy="4474800"/>
+        <a:off x="0" y="3052440"/>
+        <a:ext cx="4850640" cy="4474080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5649,15 +5656,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>414720</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>194040</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>583920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5665,8 +5672,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5884560" y="1595880"/>
-        <a:ext cx="4850280" cy="4503600"/>
+        <a:off x="5056920" y="3037680"/>
+        <a:ext cx="4849560" cy="4502880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5678,16 +5685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>438840</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>827280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5695,8 +5702,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10732320" y="1620000"/>
-        <a:ext cx="5033880" cy="4437720"/>
+        <a:off x="10149840" y="3101040"/>
+        <a:ext cx="5033160" cy="4437000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5709,15 +5716,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>988200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:colOff>95760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>888120</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1182960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5725,8 +5732,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3364200" y="6166440"/>
-        <a:ext cx="4652280" cy="4087440"/>
+        <a:off x="2471760" y="7462800"/>
+        <a:ext cx="4651560" cy="4086720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5739,15 +5746,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1034280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>758520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>477000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5755,8 +5762,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8162640" y="6247800"/>
-        <a:ext cx="4665960" cy="4001760"/>
+        <a:off x="7886880" y="7602480"/>
+        <a:ext cx="4665240" cy="4001040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5964,7 +5971,7 @@
   <dimension ref="A1:Z1042957"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6107,6 +6114,7 @@
         <f aca="false">(B5+C5*D5) * $I$2 + $I$1</f>
         <v>14.1412842877671</v>
       </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -26245,7 +26253,7 @@
   </sheetPr>
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
     </sheetView>
   </sheetViews>
@@ -32231,7 +32239,7 @@
   </sheetPr>
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
     </sheetView>
   </sheetViews>
@@ -55865,10 +55873,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55878,114 +55886,152 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <f aca="false">CORREL(T1!G:G,T1!H:H)</f>
         <v>0.971017471736896</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <f aca="false">CORREL(T2!G:G,T2!H:H)</f>
         <v>0.950471424102954</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <f aca="false">CORREL(T3!G:G,T3!H:H)</f>
         <v>0.904169087090576</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <f aca="false">CORREL(T4!G:G,T4!H:H)</f>
         <v>0.814705750927209</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <f aca="false">CORREL(T5!G:G,T5!H:H)</f>
         <v>0.626641047410519</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="9" t="n">
         <f aca="false">AVERAGE(Table1[[#This Row],[T1]:[T5]])</f>
         <v>0.853400956253631</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <f aca="false">AVERAGE(T1!J:J)</f>
         <v>4.35076717269362</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">AVERAGE(T2!J:J)</f>
         <v>0.644393164613872</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <f aca="false">AVERAGE(T3!J:J)</f>
         <v>0.247834908800434</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">AVERAGE(T4!J:J)</f>
         <v>0.167088109308131</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <f aca="false">AVERAGE(T5!J:J)</f>
         <v>0.358805610558945</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <f aca="false">AVERAGE(B3:F3)</f>
         <v>1.153777793195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <f aca="false">AVERAGE(T1!I:I)</f>
         <v>1.19203272534645</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <f aca="false">AVERAGE(T2!I:I)</f>
         <v>0.599819164411293</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <f aca="false">AVERAGE(T3!I:I)</f>
         <v>0.357228274671818</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">AVERAGE(T4!I:I)</f>
         <v>0.286506813389653</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <f aca="false">AVERAGE(T5!I:I)</f>
         <v>0.508675109761912</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="9" t="n">
         <f aca="false">AVERAGE(B4:F4)</f>
         <v>0.588852417516225</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <f aca="false">B4/(MAX(T1!E:E)-MIN(T1!E:E))</f>
+        <v>0.0241944847158351</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <f aca="false">C4/(MAX(T2!E:E)-MIN(T2!E:E))</f>
+        <v>0.036016059212896</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <f aca="false">D4/(MAX(T3!E:E)-MIN(T3!E:E))</f>
+        <v>0.0546651422385214</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <f aca="false">E4/(MAX(T4!E:E)-MIN(T4!E:E))</f>
+        <v>0.0880136897107055</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <f aca="false">F4/(MAX(T5!E:E)-MIN(T5!E:E))</f>
+        <v>0.246627138436663</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <f aca="false">AVERAGE(B5:F5)</f>
+        <v>0.0899033028629241</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -56009,7 +56055,7 @@
   </sheetPr>
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
     </sheetView>
   </sheetViews>
@@ -56017,34 +56063,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
